--- a/C3G47GR7 Gestion de Taller en linea.xlsx
+++ b/C3G47GR7 Gestion de Taller en linea.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonlopez/Documents/GitHub/Gestion-de-Taller-en-Linea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6474F6FD-119D-4530-94DC-BDE782E0656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="825" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" tabRatio="825" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="5" r:id="rId1"/>
@@ -29,16 +28,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Product Backlog'!$A$3:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ing Diego Ochoa</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1252,14 +1256,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,188 +1272,188 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,29 +1461,29 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1488,22 +1492,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1511,11 +1515,11 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,7 +1527,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1531,7 +1535,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1539,214 +1543,214 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1754,22 +1758,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1777,44 +1781,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,20 +1826,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1843,10 +1847,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1856,7 +1860,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,55 +1946,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2471,195 +2475,195 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2746,9 +2750,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2836,8 +2840,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37402881306503355"/>
-          <c:y val="1.9575935361021049E-2"/>
+          <c:x val="0.374028813065034"/>
+          <c:y val="0.019575935361021"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2855,10 +2859,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6559378468368484E-2"/>
-          <c:y val="0.15660685154975529"/>
-          <c:w val="0.89234184239733627"/>
-          <c:h val="0.68841761827079939"/>
+          <c:x val="0.0965593784683685"/>
+          <c:y val="0.156606851549755"/>
+          <c:w val="0.892341842397336"/>
+          <c:h val="0.6884176182708"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2932,34 +2936,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B48-41B6-93CB-2462C2941C9B}"/>
             </c:ext>
@@ -3033,34 +3037,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5B48-41B6-93CB-2462C2941C9B}"/>
             </c:ext>
@@ -3076,11 +3080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1709360848"/>
-        <c:axId val="-1709360304"/>
+        <c:axId val="2128113280"/>
+        <c:axId val="2128116288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1709360848"/>
+        <c:axId val="2128113280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,10 +3116,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709360304"/>
+        <c:crossAx val="2128116288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3124,7 +3128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709360304"/>
+        <c:axId val="2128116288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,10 +3170,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709360848"/>
+        <c:crossAx val="2128113280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3200,7 +3204,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3243,14 +3247,14 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
@@ -3282,7 +3286,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3336,7 @@
         <xdr:cNvPr id="5" name="Grupo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6122AE47-D975-448B-8A9C-29EE432E2BF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6122AE47-D975-448B-8A9C-29EE432E2BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,8 +3344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600075" y="714375"/>
-          <a:ext cx="4692661" cy="2028825"/>
+          <a:off x="600075" y="727075"/>
+          <a:ext cx="5073661" cy="2066925"/>
           <a:chOff x="238125" y="638175"/>
           <a:chExt cx="4692661" cy="2028825"/>
         </a:xfrm>
@@ -3351,7 +3355,7 @@
           <xdr:cNvPr id="3" name="Imagen 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D54F54-6C4F-4964-9EB0-142A3628B62D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78D54F54-6C4F-4964-9EB0-142A3628B62D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3397,7 +3401,7 @@
           <xdr:cNvPr id="4" name="CuadroTexto 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB088EB-493B-4033-905D-28B10827AA0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEB088EB-493B-4033-905D-28B10827AA0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3455,6 +3459,50 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212852</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3467100"/>
+          <a:ext cx="4340352" cy="2731008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3468,7 +3516,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,63 +3860,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="49" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="49"/>
+    <col min="2" max="2" width="33.83203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="49" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:4" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+    </row>
+    <row r="2" spans="1:4" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-    </row>
-    <row r="4" spans="1:4" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+    </row>
+    <row r="4" spans="1:4" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
     </row>
-    <row r="5" spans="1:4" s="48" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+    <row r="5" spans="1:4" s="48" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-    </row>
-    <row r="6" spans="1:4" s="48" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="185" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+    </row>
+    <row r="6" spans="1:4" s="48" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" s="50" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="50" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="111" t="s">
         <v>27</v>
       </c>
@@ -3882,7 +3930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>1</v>
       </c>
@@ -3896,7 +3944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <v>2</v>
       </c>
@@ -3910,7 +3958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <v>3</v>
       </c>
@@ -3924,7 +3972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>4</v>
       </c>
@@ -3938,7 +3986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <v>5</v>
       </c>
@@ -3952,7 +4000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <v>6</v>
       </c>
@@ -3966,38 +4014,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" s="54" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="186" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" s="54" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="188" t="s">
+      <c r="B17" s="189"/>
+      <c r="C17" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="189"/>
-    </row>
-    <row r="18" spans="1:4" s="54" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180" t="s">
+      <c r="D17" s="191"/>
+    </row>
+    <row r="18" spans="1:4" s="54" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182" t="s">
+      <c r="B18" s="183"/>
+      <c r="C18" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="183"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="185"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="62"/>
       <c r="D19" s="63"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="64"/>
     </row>
   </sheetData>
@@ -4012,14 +4060,14 @@
     <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C18:C20" r:id="rId8" display="https://github.com/C3G47GR7/Gestion-de-Taller-en-Linea.git" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId6"/>
+    <hyperlink ref="C17" r:id="rId7"/>
+    <hyperlink ref="C18:C20" r:id="rId8" display="https://github.com/C3G47GR7/Gestion-de-Taller-en-Linea.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -4027,165 +4075,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD756C-42CD-44F9-AAB4-E04321CF4F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="168" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="240" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="241" t="s">
+      <c r="C1" s="181" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="240">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="180">
         <v>1</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="181" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="240">
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="180">
         <v>2</v>
       </c>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="180" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="181" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="240">
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="180">
         <v>3</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="181" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="240">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="180">
         <v>4</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="180" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="241" t="s">
+      <c r="C5" s="181" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="240">
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A6" s="180">
         <v>5</v>
       </c>
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="181" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="240">
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="180">
         <v>6</v>
       </c>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="241" t="s">
+      <c r="C7" s="181" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="240">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="180">
         <v>7</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="241"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="240">
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="180">
         <v>8</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="240">
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="180">
         <v>9</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="240">
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="180">
         <v>10</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="241"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="240">
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="180">
         <v>11</v>
       </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="240">
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="180">
         <v>12</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="240">
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="180">
         <v>13</v>
       </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="240">
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="180">
         <v>14</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="241"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="240">
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="180">
         <v>15</v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="241"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="240">
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="180">
         <v>16</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="241"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4193,89 +4241,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="16384" width="11.5" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="192"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
+    </row>
+    <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="202"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="204"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="195"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="196"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="197"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="199"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="198"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4289,30 +4337,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="19.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="11.5" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="129"/>
       <c r="B1" s="127" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="162" t="s">
         <v>68</v>
       </c>
@@ -4320,7 +4368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="163" t="s">
         <v>69</v>
       </c>
@@ -4328,7 +4376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="162" t="s">
         <v>70</v>
       </c>
@@ -4336,7 +4384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="164" t="s">
         <v>71</v>
       </c>
@@ -4344,7 +4392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>72</v>
       </c>
@@ -4352,7 +4400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="166" t="s">
         <v>73</v>
       </c>
@@ -4368,39 +4416,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="137" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203" t="s">
+    <row r="1" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" s="137" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="205"/>
-    </row>
-    <row r="3" spans="1:9" s="138" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="207"/>
+    </row>
+    <row r="3" spans="1:9" s="138" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>27</v>
       </c>
@@ -4429,7 +4477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="148">
         <v>1</v>
       </c>
@@ -4444,7 +4492,7 @@
       <c r="H4" s="154"/>
       <c r="I4" s="143"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="152" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +4515,7 @@
       <c r="H5" s="156"/>
       <c r="I5" s="145"/>
     </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="152" t="s">
         <v>100</v>
       </c>
@@ -4494,7 +4542,7 @@
       </c>
       <c r="I6" s="145"/>
     </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="152" t="s">
         <v>102</v>
       </c>
@@ -4519,7 +4567,7 @@
       <c r="H7" s="156"/>
       <c r="I7" s="145"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="152" t="s">
         <v>103</v>
       </c>
@@ -4544,7 +4592,7 @@
       <c r="H8" s="156"/>
       <c r="I8" s="145"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="152" t="s">
         <v>107</v>
       </c>
@@ -4569,7 +4617,7 @@
       </c>
       <c r="I9" s="145"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="149"/>
       <c r="B10" s="144"/>
       <c r="C10" s="144"/>
@@ -4580,7 +4628,7 @@
       <c r="H10" s="156"/>
       <c r="I10" s="145"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="149"/>
       <c r="B11" s="144"/>
       <c r="C11" s="144"/>
@@ -4591,7 +4639,7 @@
       <c r="H11" s="156"/>
       <c r="I11" s="145"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="149"/>
       <c r="B12" s="144"/>
       <c r="C12" s="144"/>
@@ -4602,7 +4650,7 @@
       <c r="H12" s="156"/>
       <c r="I12" s="145"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="149"/>
       <c r="B13" s="144"/>
       <c r="C13" s="144"/>
@@ -4613,7 +4661,7 @@
       <c r="H13" s="156"/>
       <c r="I13" s="145"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="149"/>
       <c r="B14" s="144"/>
       <c r="C14" s="144"/>
@@ -4624,7 +4672,7 @@
       <c r="H14" s="156"/>
       <c r="I14" s="145"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="149"/>
       <c r="B15" s="144"/>
       <c r="C15" s="144"/>
@@ -4635,7 +4683,7 @@
       <c r="H15" s="156"/>
       <c r="I15" s="145"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149"/>
       <c r="B16" s="144"/>
       <c r="C16" s="144"/>
@@ -4646,7 +4694,7 @@
       <c r="H16" s="156"/>
       <c r="I16" s="145"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149"/>
       <c r="B17" s="144"/>
       <c r="C17" s="144"/>
@@ -4657,7 +4705,7 @@
       <c r="H17" s="156"/>
       <c r="I17" s="145"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149"/>
       <c r="B18" s="144"/>
       <c r="C18" s="144"/>
@@ -4668,7 +4716,7 @@
       <c r="H18" s="156"/>
       <c r="I18" s="145"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="149"/>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
@@ -4679,7 +4727,7 @@
       <c r="H19" s="156"/>
       <c r="I19" s="145"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="150"/>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -4690,10 +4738,10 @@
       <c r="H20" s="157"/>
       <c r="I20" s="147"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:I2"/>
@@ -4703,43 +4751,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C7A123-3603-49CD-84E5-AA65DE473239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="137" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="206" t="s">
+    <row r="2" spans="1:11" s="137" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-    </row>
-    <row r="3" spans="1:11" s="138" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+    </row>
+    <row r="3" spans="1:11" s="138" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>27</v>
       </c>
@@ -4774,7 +4822,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="167" t="s">
         <v>140</v>
       </c>
@@ -4791,7 +4839,7 @@
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="152"/>
       <c r="B5" s="153"/>
       <c r="C5" s="155"/>
@@ -4804,7 +4852,7 @@
       <c r="J5" s="145"/>
       <c r="K5" s="145"/>
     </row>
-    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="152"/>
       <c r="B6" s="153"/>
       <c r="C6" s="155"/>
@@ -4817,7 +4865,7 @@
       <c r="J6" s="145"/>
       <c r="K6" s="145"/>
     </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="152" t="s">
         <v>142</v>
       </c>
@@ -4834,7 +4882,7 @@
       <c r="J7" s="145"/>
       <c r="K7" s="145"/>
     </row>
-    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="152"/>
       <c r="B8" s="153"/>
       <c r="C8" s="155"/>
@@ -4847,7 +4895,7 @@
       <c r="J8" s="145"/>
       <c r="K8" s="145"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="152"/>
       <c r="B9" s="153"/>
       <c r="C9" s="155"/>
@@ -4860,7 +4908,7 @@
       <c r="J9" s="145"/>
       <c r="K9" s="145"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="152"/>
       <c r="B10" s="153"/>
       <c r="C10" s="155"/>
@@ -4873,7 +4921,7 @@
       <c r="J10" s="145"/>
       <c r="K10" s="145"/>
     </row>
-    <row r="11" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="152" t="s">
         <v>144</v>
       </c>
@@ -4890,7 +4938,7 @@
       <c r="J11" s="145"/>
       <c r="K11" s="145"/>
     </row>
-    <row r="12" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="152" t="s">
         <v>150</v>
       </c>
@@ -4925,7 +4973,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="152" t="s">
         <v>168</v>
       </c>
@@ -4960,7 +5008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="152" t="s">
         <v>169</v>
       </c>
@@ -4995,7 +5043,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="152" t="s">
         <v>145</v>
       </c>
@@ -5012,7 +5060,7 @@
       <c r="J15" s="145"/>
       <c r="K15" s="145"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149"/>
       <c r="B16" s="144"/>
       <c r="C16" s="156"/>
@@ -5025,7 +5073,7 @@
       <c r="J16" s="145"/>
       <c r="K16" s="145"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149"/>
       <c r="B17" s="144"/>
       <c r="C17" s="156"/>
@@ -5038,7 +5086,7 @@
       <c r="J17" s="145"/>
       <c r="K17" s="145"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149"/>
       <c r="B18" s="144"/>
       <c r="C18" s="156"/>
@@ -5051,7 +5099,7 @@
       <c r="J18" s="145"/>
       <c r="K18" s="145"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="152" t="s">
         <v>147</v>
       </c>
@@ -5068,7 +5116,7 @@
       <c r="J19" s="145"/>
       <c r="K19" s="145"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="149"/>
       <c r="B20" s="144"/>
       <c r="C20" s="156"/>
@@ -5081,7 +5129,7 @@
       <c r="J20" s="145"/>
       <c r="K20" s="145"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="150"/>
       <c r="B21" s="146"/>
       <c r="C21" s="157"/>
@@ -5094,16 +5142,16 @@
       <c r="J21" s="147"/>
       <c r="K21" s="147"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="168"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="168"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="168"/>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
@@ -5113,14 +5161,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5128,62 +5176,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="49" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="53.140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="49" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="49" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="11.5" style="49" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="49" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="49" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="49" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="49" customWidth="1"/>
+    <col min="9" max="9" width="53.1640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="49" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="49" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="209" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="211"/>
-    </row>
-    <row r="2" spans="1:11" s="130" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="213"/>
+    </row>
+    <row r="2" spans="1:11" s="130" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="131"/>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
       <c r="D2" s="132"/>
       <c r="E2" s="132"/>
-      <c r="F2" s="208" t="s">
+      <c r="F2" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
       <c r="J2" s="132"/>
       <c r="K2" s="132"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
         <v>65</v>
       </c>
@@ -5218,7 +5266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="121"/>
       <c r="B4" s="121"/>
       <c r="C4" s="128"/>
@@ -5234,7 +5282,7 @@
       <c r="J4" s="121"/>
       <c r="K4" s="121"/>
     </row>
-    <row r="5" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="124"/>
       <c r="B5" s="124"/>
       <c r="C5" s="125"/>
@@ -5250,7 +5298,7 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="121"/>
       <c r="B6" s="121"/>
       <c r="C6" s="128"/>
@@ -5266,7 +5314,7 @@
       <c r="J6" s="121"/>
       <c r="K6" s="121"/>
     </row>
-    <row r="7" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
@@ -5282,7 +5330,7 @@
       <c r="J7" s="124"/>
       <c r="K7" s="124"/>
     </row>
-    <row r="8" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="121"/>
       <c r="B8" s="121"/>
       <c r="C8" s="128"/>
@@ -5298,7 +5346,7 @@
       <c r="J8" s="121"/>
       <c r="K8" s="121"/>
     </row>
-    <row r="9" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="124"/>
       <c r="B9" s="124"/>
       <c r="C9" s="125"/>
@@ -5314,7 +5362,7 @@
       <c r="J9" s="124"/>
       <c r="K9" s="124"/>
     </row>
-    <row r="10" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="121"/>
       <c r="B10" s="121"/>
       <c r="C10" s="128"/>
@@ -5330,7 +5378,7 @@
       <c r="J10" s="121"/>
       <c r="K10" s="121"/>
     </row>
-    <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124"/>
       <c r="B11" s="124"/>
       <c r="C11" s="125"/>
@@ -5346,7 +5394,7 @@
       <c r="J11" s="124"/>
       <c r="K11" s="124"/>
     </row>
-    <row r="12" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="121"/>
       <c r="B12" s="121"/>
       <c r="C12" s="128"/>
@@ -5359,7 +5407,7 @@
       <c r="J12" s="121"/>
       <c r="K12" s="121"/>
     </row>
-    <row r="13" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124"/>
       <c r="B13" s="124"/>
       <c r="C13" s="125"/>
@@ -5372,7 +5420,7 @@
       <c r="J13" s="124"/>
       <c r="K13" s="124"/>
     </row>
-    <row r="14" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="128"/>
@@ -5385,7 +5433,7 @@
       <c r="J14" s="121"/>
       <c r="K14" s="121"/>
     </row>
-    <row r="15" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124"/>
       <c r="B15" s="124"/>
       <c r="C15" s="125"/>
@@ -5398,7 +5446,7 @@
       <c r="J15" s="124"/>
       <c r="K15" s="124"/>
     </row>
-    <row r="16" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="121"/>
       <c r="B16" s="121"/>
       <c r="C16" s="128"/>
@@ -5411,7 +5459,7 @@
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
     </row>
-    <row r="17" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="124"/>
       <c r="B17" s="124"/>
       <c r="C17" s="125"/>
@@ -5424,7 +5472,7 @@
       <c r="J17" s="124"/>
       <c r="K17" s="124"/>
     </row>
-    <row r="18" spans="1:11" s="123" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="123" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="121"/>
       <c r="B18" s="121"/>
       <c r="C18" s="128"/>
@@ -5437,7 +5485,7 @@
       <c r="J18" s="121"/>
       <c r="K18" s="121"/>
     </row>
-    <row r="19" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124"/>
       <c r="B19" s="124"/>
       <c r="C19" s="125"/>
@@ -5450,7 +5498,7 @@
       <c r="J19" s="124"/>
       <c r="K19" s="124"/>
     </row>
-    <row r="20" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="121"/>
       <c r="B20" s="121"/>
       <c r="C20" s="128"/>
@@ -5466,7 +5514,7 @@
       <c r="J20" s="121"/>
       <c r="K20" s="121"/>
     </row>
-    <row r="21" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="124"/>
       <c r="B21" s="124"/>
       <c r="C21" s="125"/>
@@ -5482,7 +5530,7 @@
       <c r="J21" s="124"/>
       <c r="K21" s="124"/>
     </row>
-    <row r="22" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="121"/>
       <c r="B22" s="121"/>
       <c r="C22" s="128"/>
@@ -5498,7 +5546,7 @@
       <c r="J22" s="121"/>
       <c r="K22" s="121"/>
     </row>
-    <row r="23" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="124"/>
       <c r="B23" s="124"/>
       <c r="C23" s="125"/>
@@ -5514,7 +5562,7 @@
       <c r="J23" s="124"/>
       <c r="K23" s="124"/>
     </row>
-    <row r="24" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="121"/>
       <c r="B24" s="121"/>
       <c r="C24" s="128"/>
@@ -5530,7 +5578,7 @@
       <c r="J24" s="121"/>
       <c r="K24" s="121"/>
     </row>
-    <row r="25" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
       <c r="B25" s="124"/>
       <c r="C25" s="125"/>
@@ -5546,7 +5594,7 @@
       <c r="J25" s="124"/>
       <c r="K25" s="124"/>
     </row>
-    <row r="26" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="121"/>
       <c r="B26" s="121"/>
       <c r="C26" s="128"/>
@@ -5562,7 +5610,7 @@
       <c r="J26" s="121"/>
       <c r="K26" s="121"/>
     </row>
-    <row r="27" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="124"/>
       <c r="B27" s="124"/>
       <c r="C27" s="125"/>
@@ -5578,7 +5626,7 @@
       <c r="J27" s="124"/>
       <c r="K27" s="124"/>
     </row>
-    <row r="28" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="121"/>
       <c r="B28" s="121"/>
       <c r="C28" s="128"/>
@@ -5594,7 +5642,7 @@
       <c r="J28" s="121"/>
       <c r="K28" s="121"/>
     </row>
-    <row r="29" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="124"/>
       <c r="B29" s="124"/>
       <c r="C29" s="125"/>
@@ -5610,7 +5658,7 @@
       <c r="J29" s="124"/>
       <c r="K29" s="124"/>
     </row>
-    <row r="30" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="121"/>
       <c r="B30" s="121"/>
       <c r="C30" s="128"/>
@@ -5626,7 +5674,7 @@
       <c r="J30" s="121"/>
       <c r="K30" s="121"/>
     </row>
-    <row r="31" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="124"/>
       <c r="B31" s="124"/>
       <c r="C31" s="125"/>
@@ -5643,7 +5691,7 @@
       <c r="K31" s="124"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I6" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A3:I6"/>
   <mergeCells count="2">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B1:K1"/>
@@ -5654,31 +5702,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I19" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="49"/>
-    <col min="2" max="2" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="110" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="49"/>
-    <col min="10" max="10" width="5.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="49"/>
+    <col min="2" max="2" width="15.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="110" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="49"/>
+    <col min="10" max="10" width="5.5" style="49" customWidth="1"/>
     <col min="11" max="12" width="16" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="49"/>
+    <col min="13" max="16384" width="11.5" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79"/>
       <c r="B1" s="80" t="s">
         <v>51</v>
@@ -5687,16 +5735,16 @@
       <c r="D1" s="82"/>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
-      <c r="G1" s="212" t="s">
+      <c r="G1" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="213"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="79"/>
       <c r="B2" s="83" t="s">
         <v>53</v>
@@ -5708,7 +5756,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="79"/>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="219" t="s">
         <v>189</v>
       </c>
       <c r="G2" s="83" t="s">
@@ -5720,13 +5768,13 @@
       <c r="I2" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="220" t="s">
+      <c r="J2" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="221"/>
-      <c r="L2" s="222"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="223"/>
+      <c r="L2" s="224"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="79"/>
       <c r="B3" s="86">
         <v>1</v>
@@ -5738,7 +5786,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="79"/>
-      <c r="F3" s="218"/>
+      <c r="F3" s="220"/>
       <c r="G3" s="89">
         <v>1</v>
       </c>
@@ -5748,13 +5796,13 @@
       <c r="I3" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="223" t="s">
+      <c r="J3" s="225" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="224"/>
-      <c r="L3" s="225"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="226"/>
+      <c r="L3" s="227"/>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="79"/>
       <c r="B4" s="90">
         <v>2</v>
@@ -5766,7 +5814,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="79"/>
-      <c r="F4" s="218"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="89">
         <v>2</v>
       </c>
@@ -5776,11 +5824,11 @@
       <c r="I4" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="223"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="225"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="225"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="227"/>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="79"/>
       <c r="B5" s="94">
         <v>3</v>
@@ -5792,7 +5840,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="79"/>
-      <c r="F5" s="218"/>
+      <c r="F5" s="220"/>
       <c r="G5" s="89">
         <v>3</v>
       </c>
@@ -5802,11 +5850,11 @@
       <c r="I5" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="223"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="225"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="225"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="227"/>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="79"/>
       <c r="B6" s="90">
         <v>5</v>
@@ -5818,7 +5866,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="79"/>
-      <c r="F6" s="218"/>
+      <c r="F6" s="220"/>
       <c r="G6" s="89">
         <v>5</v>
       </c>
@@ -5828,11 +5876,11 @@
       <c r="I6" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="223"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="225"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="225"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="227"/>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="79"/>
       <c r="B7" s="96">
         <v>8</v>
@@ -5844,7 +5892,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="79"/>
-      <c r="F7" s="218"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="89">
         <v>8</v>
       </c>
@@ -5854,11 +5902,11 @@
       <c r="I7" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="223"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="225"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="225"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="227"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="79"/>
       <c r="B8" s="90">
         <v>13</v>
@@ -5870,7 +5918,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="79"/>
-      <c r="F8" s="218"/>
+      <c r="F8" s="220"/>
       <c r="G8" s="100">
         <v>13</v>
       </c>
@@ -5880,11 +5928,11 @@
       <c r="I8" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="223"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="225"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="225"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="227"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="79"/>
       <c r="B9" s="96">
         <v>21</v>
@@ -5892,7 +5940,7 @@
       <c r="C9" s="101"/>
       <c r="D9" s="102"/>
       <c r="E9" s="79"/>
-      <c r="F9" s="218"/>
+      <c r="F9" s="220"/>
       <c r="G9" s="103">
         <v>21</v>
       </c>
@@ -5902,11 +5950,11 @@
       <c r="I9" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="223"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="225"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="225"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="227"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="79"/>
       <c r="B10" s="90">
         <v>34</v>
@@ -5914,7 +5962,7 @@
       <c r="C10" s="91"/>
       <c r="D10" s="92"/>
       <c r="E10" s="79"/>
-      <c r="F10" s="218"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="100">
         <v>34</v>
       </c>
@@ -5924,11 +5972,11 @@
       <c r="I10" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="225"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="225"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="227"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
       <c r="B11" s="104" t="s">
         <v>61</v>
@@ -5936,1263 +5984,1263 @@
       <c r="C11" s="105"/>
       <c r="D11" s="106"/>
       <c r="E11" s="79"/>
-      <c r="F11" s="219"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="107" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="109"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="228"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="228"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="230"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
       <c r="E14" s="79"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="79"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
       <c r="E15" s="79"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="79"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="79"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="79"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="79"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="79"/>
       <c r="B20" s="79"/>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
       <c r="E20" s="79"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="79"/>
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="79"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="79"/>
       <c r="B23" s="79"/>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="79"/>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="79"/>
       <c r="B25" s="79"/>
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="79"/>
       <c r="B26" s="79"/>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="79"/>
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
       <c r="D27" s="79"/>
       <c r="E27" s="79"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="79"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="79"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
       <c r="E29" s="79"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="79"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="79"/>
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="79"/>
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
       <c r="D32" s="79"/>
       <c r="E32" s="79"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="79"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="79"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
       <c r="E35" s="79"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="79"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
       <c r="E37" s="79"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="79"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="79"/>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="79"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="79"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
       <c r="E45" s="79"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="79"/>
       <c r="B46" s="79"/>
       <c r="C46" s="79"/>
       <c r="D46" s="79"/>
       <c r="E46" s="79"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="79"/>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
       <c r="D47" s="79"/>
       <c r="E47" s="79"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="79"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="79"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="79"/>
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
       <c r="D50" s="79"/>
       <c r="E50" s="79"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="79"/>
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
       <c r="D51" s="79"/>
       <c r="E51" s="79"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="79"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
       <c r="E52" s="79"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="79"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53" s="79"/>
       <c r="E53" s="79"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="79"/>
       <c r="B54" s="79"/>
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
       <c r="E54" s="79"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="79"/>
       <c r="B55" s="79"/>
       <c r="C55" s="79"/>
       <c r="D55" s="79"/>
       <c r="E55" s="79"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="79"/>
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
       <c r="D56" s="79"/>
       <c r="E56" s="79"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="79"/>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="79"/>
       <c r="B58" s="79"/>
       <c r="C58" s="79"/>
       <c r="D58" s="79"/>
       <c r="E58" s="79"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="79"/>
       <c r="B59" s="79"/>
       <c r="C59" s="79"/>
       <c r="D59" s="79"/>
       <c r="E59" s="79"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="79"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
       <c r="D60" s="79"/>
       <c r="E60" s="79"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="79"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79"/>
       <c r="D61" s="79"/>
       <c r="E61" s="79"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="79"/>
       <c r="B62" s="79"/>
       <c r="C62" s="79"/>
       <c r="D62" s="79"/>
       <c r="E62" s="79"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="79"/>
       <c r="B63" s="79"/>
       <c r="C63" s="79"/>
       <c r="D63" s="79"/>
       <c r="E63" s="79"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="79"/>
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
       <c r="D64" s="79"/>
       <c r="E64" s="79"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="79"/>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
       <c r="D65" s="79"/>
       <c r="E65" s="79"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="79"/>
       <c r="B66" s="79"/>
       <c r="C66" s="79"/>
       <c r="D66" s="79"/>
       <c r="E66" s="79"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="79"/>
       <c r="B67" s="79"/>
       <c r="C67" s="79"/>
       <c r="D67" s="79"/>
       <c r="E67" s="79"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="79"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
       <c r="D68" s="79"/>
       <c r="E68" s="79"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="79"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
       <c r="D69" s="79"/>
       <c r="E69" s="79"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="79"/>
       <c r="B70" s="79"/>
       <c r="C70" s="79"/>
       <c r="D70" s="79"/>
       <c r="E70" s="79"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="79"/>
       <c r="B71" s="79"/>
       <c r="C71" s="79"/>
       <c r="D71" s="79"/>
       <c r="E71" s="79"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="79"/>
       <c r="B72" s="79"/>
       <c r="C72" s="79"/>
       <c r="D72" s="79"/>
       <c r="E72" s="79"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="79"/>
       <c r="B73" s="79"/>
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="79"/>
       <c r="C74" s="79"/>
       <c r="D74" s="79"/>
       <c r="E74" s="79"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="79"/>
       <c r="B75" s="79"/>
       <c r="C75" s="79"/>
       <c r="D75" s="79"/>
       <c r="E75" s="79"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="79"/>
       <c r="B76" s="79"/>
       <c r="C76" s="79"/>
       <c r="D76" s="79"/>
       <c r="E76" s="79"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="79"/>
       <c r="B77" s="79"/>
       <c r="C77" s="79"/>
       <c r="D77" s="79"/>
       <c r="E77" s="79"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="79"/>
       <c r="B78" s="79"/>
       <c r="C78" s="79"/>
       <c r="D78" s="79"/>
       <c r="E78" s="79"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="79"/>
       <c r="C79" s="79"/>
       <c r="D79" s="79"/>
       <c r="E79" s="79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="79"/>
       <c r="B80" s="79"/>
       <c r="C80" s="79"/>
       <c r="D80" s="79"/>
       <c r="E80" s="79"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="79"/>
       <c r="B81" s="79"/>
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="79"/>
       <c r="D82" s="79"/>
       <c r="E82" s="79"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="79"/>
       <c r="B83" s="79"/>
       <c r="C83" s="79"/>
       <c r="D83" s="79"/>
       <c r="E83" s="79"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="79"/>
       <c r="B84" s="79"/>
       <c r="C84" s="79"/>
       <c r="D84" s="79"/>
       <c r="E84" s="79"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="79"/>
       <c r="B85" s="79"/>
       <c r="C85" s="79"/>
       <c r="D85" s="79"/>
       <c r="E85" s="79"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="79"/>
       <c r="B86" s="79"/>
       <c r="C86" s="79"/>
       <c r="D86" s="79"/>
       <c r="E86" s="79"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="79"/>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
       <c r="D87" s="79"/>
       <c r="E87" s="79"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="79"/>
       <c r="B88" s="79"/>
       <c r="C88" s="79"/>
       <c r="D88" s="79"/>
       <c r="E88" s="79"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="79"/>
       <c r="B89" s="79"/>
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="79"/>
       <c r="B90" s="79"/>
       <c r="C90" s="79"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="79"/>
       <c r="B91" s="79"/>
       <c r="C91" s="79"/>
       <c r="D91" s="79"/>
       <c r="E91" s="79"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="79"/>
       <c r="B92" s="79"/>
       <c r="C92" s="79"/>
       <c r="D92" s="79"/>
       <c r="E92" s="79"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="79"/>
       <c r="B93" s="79"/>
       <c r="C93" s="79"/>
       <c r="D93" s="79"/>
       <c r="E93" s="79"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="79"/>
       <c r="B94" s="79"/>
       <c r="C94" s="79"/>
       <c r="D94" s="79"/>
       <c r="E94" s="79"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="79"/>
       <c r="B95" s="79"/>
       <c r="C95" s="79"/>
       <c r="D95" s="79"/>
       <c r="E95" s="79"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="79"/>
       <c r="B96" s="79"/>
       <c r="C96" s="79"/>
       <c r="D96" s="79"/>
       <c r="E96" s="79"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="79"/>
       <c r="B97" s="79"/>
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="79"/>
       <c r="B98" s="79"/>
       <c r="C98" s="79"/>
       <c r="D98" s="79"/>
       <c r="E98" s="79"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="79"/>
       <c r="B99" s="79"/>
       <c r="C99" s="79"/>
       <c r="D99" s="79"/>
       <c r="E99" s="79"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="79"/>
       <c r="B100" s="79"/>
       <c r="C100" s="79"/>
       <c r="D100" s="79"/>
       <c r="E100" s="79"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="79"/>
       <c r="B101" s="79"/>
       <c r="C101" s="79"/>
       <c r="D101" s="79"/>
       <c r="E101" s="79"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="79"/>
       <c r="B102" s="79"/>
       <c r="C102" s="79"/>
       <c r="D102" s="79"/>
       <c r="E102" s="79"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="79"/>
       <c r="B103" s="79"/>
       <c r="C103" s="79"/>
       <c r="D103" s="79"/>
       <c r="E103" s="79"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="79"/>
       <c r="B104" s="79"/>
       <c r="C104" s="79"/>
       <c r="D104" s="79"/>
       <c r="E104" s="79"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="79"/>
       <c r="B105" s="79"/>
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="79"/>
       <c r="B106" s="79"/>
       <c r="C106" s="79"/>
       <c r="D106" s="79"/>
       <c r="E106" s="79"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="79"/>
       <c r="B107" s="79"/>
       <c r="C107" s="79"/>
       <c r="D107" s="79"/>
       <c r="E107" s="79"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="79"/>
       <c r="B108" s="79"/>
       <c r="C108" s="79"/>
       <c r="D108" s="79"/>
       <c r="E108" s="79"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="79"/>
       <c r="B109" s="79"/>
       <c r="C109" s="79"/>
       <c r="D109" s="79"/>
       <c r="E109" s="79"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="79"/>
       <c r="B110" s="79"/>
       <c r="C110" s="79"/>
       <c r="D110" s="79"/>
       <c r="E110" s="79"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="79"/>
       <c r="B111" s="79"/>
       <c r="C111" s="79"/>
       <c r="D111" s="79"/>
       <c r="E111" s="79"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="79"/>
       <c r="B112" s="79"/>
       <c r="C112" s="79"/>
       <c r="D112" s="79"/>
       <c r="E112" s="79"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="79"/>
       <c r="B113" s="79"/>
       <c r="C113" s="79"/>
       <c r="D113" s="79"/>
       <c r="E113" s="79"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="79"/>
       <c r="B114" s="79"/>
       <c r="C114" s="79"/>
       <c r="D114" s="79"/>
       <c r="E114" s="79"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="79"/>
       <c r="B115" s="79"/>
       <c r="C115" s="79"/>
       <c r="D115" s="79"/>
       <c r="E115" s="79"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="79"/>
       <c r="B116" s="79"/>
       <c r="C116" s="79"/>
       <c r="D116" s="79"/>
       <c r="E116" s="79"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="79"/>
       <c r="B117" s="79"/>
       <c r="C117" s="79"/>
       <c r="D117" s="79"/>
       <c r="E117" s="79"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="79"/>
       <c r="B118" s="79"/>
       <c r="C118" s="79"/>
       <c r="D118" s="79"/>
       <c r="E118" s="79"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="79"/>
       <c r="B119" s="79"/>
       <c r="C119" s="79"/>
       <c r="D119" s="79"/>
       <c r="E119" s="79"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="79"/>
       <c r="B120" s="79"/>
       <c r="C120" s="79"/>
       <c r="D120" s="79"/>
       <c r="E120" s="79"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="79"/>
       <c r="B121" s="79"/>
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="79"/>
       <c r="B122" s="79"/>
       <c r="C122" s="79"/>
       <c r="D122" s="79"/>
       <c r="E122" s="79"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="79"/>
       <c r="B123" s="79"/>
       <c r="C123" s="79"/>
       <c r="D123" s="79"/>
       <c r="E123" s="79"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="79"/>
       <c r="B124" s="79"/>
       <c r="C124" s="79"/>
       <c r="D124" s="79"/>
       <c r="E124" s="79"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="79"/>
       <c r="B125" s="79"/>
       <c r="C125" s="79"/>
       <c r="D125" s="79"/>
       <c r="E125" s="79"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="79"/>
       <c r="B126" s="79"/>
       <c r="C126" s="79"/>
       <c r="D126" s="79"/>
       <c r="E126" s="79"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="79"/>
       <c r="B127" s="79"/>
       <c r="C127" s="79"/>
       <c r="D127" s="79"/>
       <c r="E127" s="79"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="79"/>
       <c r="B128" s="79"/>
       <c r="C128" s="79"/>
       <c r="D128" s="79"/>
       <c r="E128" s="79"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="79"/>
       <c r="B129" s="79"/>
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="79"/>
       <c r="B130" s="79"/>
       <c r="C130" s="79"/>
       <c r="D130" s="79"/>
       <c r="E130" s="79"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="79"/>
       <c r="B131" s="79"/>
       <c r="C131" s="79"/>
       <c r="D131" s="79"/>
       <c r="E131" s="79"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="79"/>
       <c r="B132" s="79"/>
       <c r="C132" s="79"/>
       <c r="D132" s="79"/>
       <c r="E132" s="79"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="79"/>
       <c r="B133" s="79"/>
       <c r="C133" s="79"/>
       <c r="D133" s="79"/>
       <c r="E133" s="79"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="79"/>
       <c r="B134" s="79"/>
       <c r="C134" s="79"/>
       <c r="D134" s="79"/>
       <c r="E134" s="79"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="79"/>
       <c r="B135" s="79"/>
       <c r="C135" s="79"/>
       <c r="D135" s="79"/>
       <c r="E135" s="79"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="79"/>
       <c r="B136" s="79"/>
       <c r="C136" s="79"/>
       <c r="D136" s="79"/>
       <c r="E136" s="79"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="79"/>
       <c r="B137" s="79"/>
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="79"/>
       <c r="B138" s="79"/>
       <c r="C138" s="79"/>
       <c r="D138" s="79"/>
       <c r="E138" s="79"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="79"/>
       <c r="B139" s="79"/>
       <c r="C139" s="79"/>
       <c r="D139" s="79"/>
       <c r="E139" s="79"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="79"/>
       <c r="B140" s="79"/>
       <c r="C140" s="79"/>
       <c r="D140" s="79"/>
       <c r="E140" s="79"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="79"/>
       <c r="B141" s="79"/>
       <c r="C141" s="79"/>
       <c r="D141" s="79"/>
       <c r="E141" s="79"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="79"/>
       <c r="B142" s="79"/>
       <c r="C142" s="79"/>
       <c r="D142" s="79"/>
       <c r="E142" s="79"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="79"/>
       <c r="B143" s="79"/>
       <c r="C143" s="79"/>
       <c r="D143" s="79"/>
       <c r="E143" s="79"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="79"/>
       <c r="B144" s="79"/>
       <c r="C144" s="79"/>
       <c r="D144" s="79"/>
       <c r="E144" s="79"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="79"/>
       <c r="B145" s="79"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
       <c r="E145" s="79"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="79"/>
       <c r="B146" s="79"/>
       <c r="C146" s="79"/>
       <c r="D146" s="79"/>
       <c r="E146" s="79"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="79"/>
       <c r="B147" s="79"/>
       <c r="C147" s="79"/>
       <c r="D147" s="79"/>
       <c r="E147" s="79"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="79"/>
       <c r="B148" s="79"/>
       <c r="C148" s="79"/>
       <c r="D148" s="79"/>
       <c r="E148" s="79"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="79"/>
       <c r="B149" s="79"/>
       <c r="C149" s="79"/>
       <c r="D149" s="79"/>
       <c r="E149" s="79"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="79"/>
       <c r="B150" s="79"/>
       <c r="C150" s="79"/>
       <c r="D150" s="79"/>
       <c r="E150" s="79"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="79"/>
       <c r="B151" s="79"/>
       <c r="C151" s="79"/>
       <c r="D151" s="79"/>
       <c r="E151" s="79"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="79"/>
       <c r="B152" s="79"/>
       <c r="C152" s="79"/>
       <c r="D152" s="79"/>
       <c r="E152" s="79"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="79"/>
       <c r="B153" s="79"/>
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="79"/>
       <c r="B154" s="79"/>
       <c r="C154" s="79"/>
       <c r="D154" s="79"/>
       <c r="E154" s="79"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="79"/>
       <c r="B155" s="79"/>
       <c r="C155" s="79"/>
       <c r="D155" s="79"/>
       <c r="E155" s="79"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="79"/>
       <c r="B156" s="79"/>
       <c r="C156" s="79"/>
       <c r="D156" s="79"/>
       <c r="E156" s="79"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="79"/>
       <c r="B157" s="79"/>
       <c r="C157" s="79"/>
       <c r="D157" s="79"/>
       <c r="E157" s="79"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="79"/>
       <c r="B158" s="79"/>
       <c r="C158" s="79"/>
       <c r="D158" s="79"/>
       <c r="E158" s="79"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="79"/>
       <c r="B159" s="79"/>
       <c r="C159" s="79"/>
       <c r="D159" s="79"/>
       <c r="E159" s="79"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="79"/>
       <c r="B160" s="79"/>
       <c r="C160" s="79"/>
       <c r="D160" s="79"/>
       <c r="E160" s="79"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="79"/>
       <c r="B161" s="79"/>
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="79"/>
       <c r="B162" s="79"/>
       <c r="C162" s="79"/>
       <c r="D162" s="79"/>
       <c r="E162" s="79"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="79"/>
       <c r="B163" s="79"/>
       <c r="C163" s="79"/>
       <c r="D163" s="79"/>
       <c r="E163" s="79"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="79"/>
       <c r="B164" s="79"/>
       <c r="C164" s="79"/>
       <c r="D164" s="79"/>
       <c r="E164" s="79"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="79"/>
       <c r="B165" s="79"/>
       <c r="C165" s="79"/>
       <c r="D165" s="79"/>
       <c r="E165" s="79"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="79"/>
       <c r="B166" s="79"/>
       <c r="C166" s="79"/>
       <c r="D166" s="79"/>
       <c r="E166" s="79"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="79"/>
       <c r="B167" s="79"/>
       <c r="C167" s="79"/>
       <c r="D167" s="79"/>
       <c r="E167" s="79"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="79"/>
       <c r="B168" s="79"/>
       <c r="C168" s="79"/>
       <c r="D168" s="79"/>
       <c r="E168" s="79"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="79"/>
       <c r="B169" s="79"/>
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="79"/>
       <c r="B170" s="79"/>
       <c r="C170" s="79"/>
       <c r="D170" s="79"/>
       <c r="E170" s="79"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="79"/>
       <c r="B171" s="79"/>
       <c r="C171" s="79"/>
       <c r="D171" s="79"/>
       <c r="E171" s="79"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="79"/>
       <c r="B172" s="79"/>
       <c r="C172" s="79"/>
       <c r="D172" s="79"/>
       <c r="E172" s="79"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="79"/>
       <c r="B173" s="79"/>
       <c r="C173" s="79"/>
       <c r="D173" s="79"/>
       <c r="E173" s="79"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="79"/>
       <c r="B174" s="79"/>
       <c r="C174" s="79"/>
       <c r="D174" s="79"/>
       <c r="E174" s="79"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="79"/>
       <c r="B175" s="79"/>
       <c r="C175" s="79"/>
       <c r="D175" s="79"/>
       <c r="E175" s="79"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="79"/>
       <c r="B176" s="79"/>
       <c r="C176" s="79"/>
       <c r="D176" s="79"/>
       <c r="E176" s="79"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="79"/>
       <c r="B177" s="79"/>
       <c r="C177" s="79"/>
       <c r="D177" s="79"/>
       <c r="E177" s="79"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="79"/>
       <c r="B178" s="79"/>
       <c r="C178" s="79"/>
       <c r="D178" s="79"/>
       <c r="E178" s="79"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="79"/>
       <c r="B179" s="79"/>
       <c r="C179" s="79"/>
       <c r="D179" s="79"/>
       <c r="E179" s="79"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="79"/>
       <c r="B180" s="79"/>
       <c r="C180" s="79"/>
       <c r="D180" s="79"/>
       <c r="E180" s="79"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="79"/>
       <c r="B181" s="79"/>
       <c r="C181" s="79"/>
       <c r="D181" s="79"/>
       <c r="E181" s="79"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="79"/>
       <c r="B182" s="79"/>
       <c r="C182" s="79"/>
       <c r="D182" s="79"/>
       <c r="E182" s="79"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="79"/>
       <c r="B183" s="79"/>
       <c r="C183" s="79"/>
       <c r="D183" s="79"/>
       <c r="E183" s="79"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="79"/>
       <c r="B184" s="79"/>
       <c r="C184" s="79"/>
       <c r="D184" s="79"/>
       <c r="E184" s="79"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="79"/>
       <c r="B185" s="79"/>
       <c r="C185" s="79"/>
       <c r="D185" s="79"/>
       <c r="E185" s="79"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="79"/>
       <c r="B186" s="79"/>
       <c r="C186" s="79"/>
       <c r="D186" s="79"/>
       <c r="E186" s="79"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="79"/>
       <c r="B187" s="79"/>
       <c r="C187" s="79"/>
       <c r="D187" s="79"/>
       <c r="E187" s="79"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="79"/>
       <c r="B188" s="79"/>
       <c r="C188" s="79"/>
       <c r="D188" s="79"/>
       <c r="E188" s="79"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="79"/>
       <c r="B189" s="79"/>
       <c r="C189" s="79"/>
       <c r="D189" s="79"/>
       <c r="E189" s="79"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="79"/>
       <c r="B190" s="79"/>
       <c r="C190" s="79"/>
@@ -7213,56 +7261,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="R12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="13" customWidth="1"/>
-    <col min="5" max="11" width="7.7109375" style="4" customWidth="1"/>
-    <col min="12" max="15" width="4.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="13" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12" max="15" width="4.5" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="231" t="s">
+      <c r="C1" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="232"/>
-      <c r="E1" s="229" t="s">
+      <c r="D1" s="234"/>
+      <c r="E1" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="233" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="232"/>
+    </row>
+    <row r="2" spans="1:15" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="237" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -7271,44 +7319,44 @@
       <c r="D2" s="40">
         <v>7</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="229" t="s">
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="234"/>
-      <c r="B3" s="236"/>
+    <row r="3" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="236"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="41">
         <v>5</v>
       </c>
-      <c r="E3" s="237" t="s">
+      <c r="E3" s="239" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="239" t="s">
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
       <c r="K3" s="44"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
@@ -7353,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -7386,7 +7434,7 @@
       <c r="N5" s="21"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -7441,7 +7489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
@@ -7484,7 +7532,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="172">
         <v>1</v>
       </c>
@@ -7505,7 +7553,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>177</v>
       </c>
@@ -7542,7 +7590,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>98</v>
       </c>
@@ -7579,7 +7627,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>100</v>
       </c>
@@ -7616,7 +7664,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>102</v>
       </c>
@@ -7653,7 +7701,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>103</v>
       </c>
@@ -7690,316 +7738,316 @@
       <c r="N13" s="23"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="19"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="19"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="19"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="19"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="19"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="19"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="19"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="19"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="19"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="19"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="19"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="19"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="19"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="19"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="19"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="19"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="19"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="19"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="19"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="19"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="19"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="19"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="19"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="19"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="19"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="19"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="19"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="19"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="19"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="19"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="19"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="19"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="19"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="19"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="19"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="19"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="19"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="19"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="19"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="19"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="19"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="19"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="19"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="19"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="19"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="19"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="19"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="19"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="19"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="19"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="19"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="19"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="19"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="19"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="19"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="19"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="19"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="19"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="19"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="19"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="19"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="19"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="19"/>
     </row>
   </sheetData>
